--- a/documentation/tips & todo project.xlsx
+++ b/documentation/tips & todo project.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ewtax45\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ewtax45\Documents\CastleCoders\ReDoAirProject\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="nice to haves" sheetId="1" r:id="rId1"/>
     <sheet name="say whhhaaaat" sheetId="3" r:id="rId2"/>
     <sheet name="tips project" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Concurrency, dubbele boekingen vermijden etc!</t>
   </si>
@@ -60,6 +60,24 @@
   </si>
   <si>
     <t>p4. different travel angencies?</t>
+  </si>
+  <si>
+    <t>for css</t>
+  </si>
+  <si>
+    <t>ipv home button</t>
+  </si>
+  <si>
+    <t>mooie font zoeken Redo Air</t>
+  </si>
+  <si>
+    <t>kleur blauw</t>
+  </si>
+  <si>
+    <t>#5bc0de</t>
+  </si>
+  <si>
+    <t>http://getbootstrap.com/customize/#less-variables</t>
   </si>
 </sst>
 </file>
@@ -418,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,4 +507,49 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>